--- a/biology/Médecine/Jean_Bastide/Jean_Bastide.xlsx
+++ b/biology/Médecine/Jean_Bastide/Jean_Bastide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jean Bastide est un homme politique, médecin et résistant français, né le 7 octobre 1905 à Anduze et mort le 25 octobre 1996 au Grau-du-Roi.
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est issu d'une famille d'instituteur protestants. Son père, Rossel Bastide, meurt en 1915, lors de la Première Guerre mondiale[1]. Il est le frère de Maurice Bastide.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est issu d'une famille d'instituteur protestants. Son père, Rossel Bastide, meurt en 1915, lors de la Première Guerre mondiale. Il est le frère de Maurice Bastide.
 Il entre au lycée de Nîmes puis fait des études de médecine. Il devient dès 1933 directeur du Centre héliomarin du Grau-du-Roi.
 La même année, il adhère à la SFIO et est initié à la loge l'Écho du Grand Orient de Nîmes.
 Avec Léon Blum, il est l'un des partisans de la guerre contre les pacifistes, majoritaires à la SFIO. Il s'engage alors dans la Résistance dès 1940, prend la tête de la direction départementale des Mouvements unifiés de la Résistance (1943-1944).
@@ -552,7 +566,9 @@
           <t>Mandats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Conseiller général du canton d'Aigues-Mortes (1945-1961, 1969-1973)
 Maire du Grau-du-Roi (1965-1983)
@@ -584,7 +600,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur</t>
         </is>
@@ -614,7 +632,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Profession de foi d’un enfant du siècle, La Mirandole, 1995</t>
         </is>
